--- a/utils/家政小程序接口.xlsx
+++ b/utils/家政小程序接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 小程序接口文档" sheetId="1" r:id="rId1"/>
@@ -117,42 +117,7 @@
     <t>家政服务列表</t>
   </si>
   <si>
-    <t>套餐id,套餐名称，价格，服务周期，服务图片列表展示。</t>
-  </si>
-  <si>
-    <t>/app/goods/list</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ID : category_id 1代表第一个 2代表第二个 3代表第三个</t>
-    </r>
-  </si>
-  <si>
-    <t>家政服务详情</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
+    <r>
       <t>套餐</t>
     </r>
     <r>
@@ -171,6 +136,94 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>套餐名称，价格，服务周期，服务图片列表展示。</t>
+    </r>
+  </si>
+  <si>
+    <t>/app/goods/list</t>
+  </si>
+  <si>
+    <r>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID : category_id 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代表第一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代表第二个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代表第三个</t>
+    </r>
+  </si>
+  <si>
+    <t>家政服务详情</t>
+  </si>
+  <si>
+    <r>
+      <t>套餐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>套餐名称，价格，服务周期，服务图片等</t>
     </r>
   </si>
@@ -179,6 +232,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>商品</t>
     </r>
     <r>
@@ -409,6 +468,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">list </t>
     </r>
     <r>
@@ -481,12 +546,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -538,18 +603,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,31 +624,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,16 +639,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -616,6 +665,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,9 +687,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -646,22 +726,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,7 +734,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,19 +754,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
@@ -722,187 +781,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,6 +1096,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1047,41 +1121,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,8 +1143,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,8 +1176,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,148 +1197,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1335,25 +1394,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2549,12 +2608,12 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="19.9" customHeight="1"/>
@@ -2657,10 +2716,10 @@
       <c r="I5" s="21"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:9">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -2676,10 +2735,10 @@
       <c r="I6" s="21"/>
     </row>
     <row r="7" ht="72" spans="1:9">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -2694,7 +2753,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" ht="12.75" spans="1:9">
       <c r="A8" s="25" t="s">
         <v>26</v>
       </c>
@@ -2712,10 +2771,10 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" ht="76.5" spans="1:9">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -2731,10 +2790,10 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" ht="24" spans="1:9">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -2749,11 +2808,11 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="17" t="s">
+    <row r="11" ht="12.75" spans="1:9">
+      <c r="A11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="19"/>
@@ -2765,10 +2824,10 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" ht="36" spans="1:9">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -2782,10 +2841,10 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" ht="22.35" customHeight="1" spans="1:9">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -2801,10 +2860,10 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" ht="38.25" spans="1:9">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -2820,10 +2879,10 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" ht="35.45" customHeight="1" spans="1:9">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -2987,8 +3046,8 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -3087,6 +3146,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/utils/家政小程序接口.xlsx
+++ b/utils/家政小程序接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12105"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 小程序接口文档" sheetId="1" r:id="rId1"/>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>套餐</t>
     </r>
     <r>
@@ -144,6 +150,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>类型</t>
     </r>
     <r>
@@ -206,6 +218,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>套餐</t>
     </r>
     <r>
@@ -546,8 +564,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -604,6 +622,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -611,22 +644,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,15 +704,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,6 +712,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -670,68 +756,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,15 +764,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,13 +799,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,169 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,6 +1113,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1144,7 +1171,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,7 +1180,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,15 +1202,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1197,148 +1215,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2753,7 +2771,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" ht="12.75" spans="1:9">
+    <row r="8" spans="1:9">
       <c r="A8" s="25" t="s">
         <v>26</v>
       </c>
